--- a/flows/ANGL_fund_flow_data.xlsx
+++ b/flows/ANGL_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2995"/>
+  <dimension ref="A1:B3007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30385,6 +30385,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2996">
+      <c r="A2996" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2997">
+      <c r="A2997" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2998">
+      <c r="A2998" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2998" t="n">
+        <v>1.432345</v>
+      </c>
+    </row>
+    <row r="2999">
+      <c r="A2999" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3000">
+      <c r="A3000" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B3000" t="n">
+        <v>37.32053</v>
+      </c>
+    </row>
+    <row r="3001">
+      <c r="A3001" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B3001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3002">
+      <c r="A3002" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B3002" t="n">
+        <v>21.567526</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B3003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B3004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3005">
+      <c r="A3005" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B3005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3006">
+      <c r="A3006" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B3006" t="n">
+        <v>17.2737</v>
+      </c>
+    </row>
+    <row r="3007">
+      <c r="A3007" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B3007" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
